--- a/rhla_analysis/rhla1_3_uniform_result/k6.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002058138534905765</v>
+        <v>0.00205813853490576</v>
       </c>
       <c r="B2" t="n">
         <v>0.08573161502157003</v>
@@ -466,12 +466,12 @@
         <v>0.1184995737425405</v>
       </c>
       <c r="D2" t="n">
-        <v>41.65492923220322</v>
+        <v>41.6549292322033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001883239638077263</v>
+        <v>0.001883239638077258</v>
       </c>
       <c r="B3" t="n">
         <v>0.0829587365768174</v>
@@ -480,12 +480,12 @@
         <v>0.1432225063938619</v>
       </c>
       <c r="D3" t="n">
-        <v>44.05107820559472</v>
+        <v>44.05107820559484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003359362917783898</v>
+        <v>0.003359362917783918</v>
       </c>
       <c r="B4" t="n">
         <v>0.08161692897919835</v>
@@ -494,12 +494,12 @@
         <v>0.1248934356351236</v>
       </c>
       <c r="D4" t="n">
-        <v>24.29535926205894</v>
+        <v>24.29535926205879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003158180255550302</v>
+        <v>0.003158180255550285</v>
       </c>
       <c r="B5" t="n">
         <v>0.09186915429680764</v>
@@ -508,12 +508,12 @@
         <v>0.139386189258312</v>
       </c>
       <c r="D5" t="n">
-        <v>29.08926877601537</v>
+        <v>29.08926877601553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.001764720743765553</v>
+        <v>0.00176472074376556</v>
       </c>
       <c r="B6" t="n">
         <v>0.08524460060976424</v>
@@ -522,7 +522,7 @@
         <v>0.1295822676896846</v>
       </c>
       <c r="D6" t="n">
-        <v>48.30486688101694</v>
+        <v>48.30486688101676</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.00290383038766846</v>
+        <v>0.002903830387668455</v>
       </c>
       <c r="B8" t="n">
         <v>0.08692515817354242</v>
@@ -550,12 +550,12 @@
         <v>0.1214833759590793</v>
       </c>
       <c r="D8" t="n">
-        <v>29.93465408402736</v>
+        <v>29.93465408402741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.002538627705281763</v>
+        <v>0.002538627705281736</v>
       </c>
       <c r="B9" t="n">
         <v>0.08292518818209271</v>
@@ -564,12 +564,12 @@
         <v>0.1415174765558397</v>
       </c>
       <c r="D9" t="n">
-        <v>32.66536011151301</v>
+        <v>32.66536011151336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001308276629977484</v>
+        <v>0.001308276629977479</v>
       </c>
       <c r="B10" t="n">
         <v>0.08579129524467106</v>
@@ -578,12 +578,12 @@
         <v>0.1312872975277067</v>
       </c>
       <c r="D10" t="n">
-        <v>65.57580658315939</v>
+        <v>65.57580658315966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.002911474656624165</v>
+        <v>0.002911474656624171</v>
       </c>
       <c r="B11" t="n">
         <v>0.08096075376395211</v>
@@ -592,7 +592,7 @@
         <v>0.1257459505541347</v>
       </c>
       <c r="D11" t="n">
-        <v>27.80747329527696</v>
+        <v>27.8074732952769</v>
       </c>
     </row>
   </sheetData>
